--- a/medicine/Enfance/Marie-Agnès_Gaudrat-Pourcel/Marie-Agnès_Gaudrat-Pourcel.xlsx
+++ b/medicine/Enfance/Marie-Agnès_Gaudrat-Pourcel/Marie-Agnès_Gaudrat-Pourcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie-Agn%C3%A8s_Gaudrat-Pourcel</t>
+          <t>Marie-Agnès_Gaudrat-Pourcel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Agnès Gaudrat-Pourcel, née en 1954, est la directrice du pôle Petite enfance de Bayard Presse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Agnès Gaudrat-Pourcel, née en 1954, est la directrice du pôle Petite enfance de Bayard Presse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie-Agn%C3%A8s_Gaudrat-Pourcel</t>
+          <t>Marie-Agnès_Gaudrat-Pourcel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a contribué aux magazines pour enfants Popi, Les Belles Histoires, Pomme d'Api[2] et Youpi et a adapté Léo et Popi, œuvre d'Helen Oxenbury, pour le magazine Popi[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a contribué aux magazines pour enfants Popi, Les Belles Histoires, Pomme d'Api et Youpi et a adapté Léo et Popi, œuvre d'Helen Oxenbury, pour le magazine Popi.
 Elle a écrit de nombreux livres pour enfants ainsi que des histoires pour les enfants, comme La Famille Cochon, publiée dans Les Belles Histoires et des livres d'éveil religieux.
-Son livre d'éveil religieux, Pour te parler de Dieu, je te dirais..., paru en 1992 chez Centurion a été réédité en 2000[4] et 2012 et s'est vendu à 32 000 exemplaires en 2012[2].
+Son livre d'éveil religieux, Pour te parler de Dieu, je te dirais..., paru en 1992 chez Centurion a été réédité en 2000 et 2012 et s'est vendu à 32 000 exemplaires en 2012.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie-Agn%C3%A8s_Gaudrat-Pourcel</t>
+          <t>Marie-Agnès_Gaudrat-Pourcel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Séries
 La Famille Cochon
